--- a/ExcelTool/excel/Person.xlsx
+++ b/ExcelTool/excel/Person.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -26,15 +26,57 @@
     <t>BornTime</t>
   </si>
   <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
     <t>zhangsan</t>
   </si>
   <si>
+    <t>10,20,30</t>
+  </si>
+  <si>
+    <t>(1,2);(3,4)</t>
+  </si>
+  <si>
+    <t>(1,ABC);(3,efg)</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6);(1,2)</t>
+  </si>
+  <si>
     <t>lisi</t>
   </si>
   <si>
+    <t>40,45,90</t>
+  </si>
+  <si>
+    <t>(1,2);(3,4);(7,8)</t>
+  </si>
+  <si>
+    <t>(1,2,3,4,5,6);(7,8,9,10,11)</t>
+  </si>
+  <si>
     <t>wangwu</t>
   </si>
   <si>
+    <t>50,60,100</t>
+  </si>
+  <si>
+    <t>(1,ABC);(3,efg);(6,qwe)</t>
+  </si>
+  <si>
+    <t>(1,2,3,6);(1)</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -47,10 +89,22 @@
     <t>String</t>
   </si>
   <si>
+    <t>intSlice</t>
+  </si>
+  <si>
+    <t>arr&lt;int,int&gt;</t>
+  </si>
+  <si>
+    <t>arr&lt;int,sting&gt;</t>
+  </si>
+  <si>
+    <t>Arr&lt;intSlice&gt;</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>S</t>
+    <t>cS</t>
   </si>
   <si>
     <t>标识符</t>
@@ -63,6 +117,9 @@
   </si>
   <si>
     <t>初始时间</t>
+  </si>
+  <si>
+    <t>分数</t>
   </si>
 </sst>
 </file>
@@ -122,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -340,13 +397,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -356,10 +458,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -374,47 +476,62 @@
     <xf numFmtId="59" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,14 +1586,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.1406" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1492,16 +1610,25 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="E1" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7">
         <v>14</v>
@@ -1509,16 +1636,25 @@
       <c r="D2" s="8">
         <v>32874</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="10">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7">
         <v>15</v>
@@ -1526,16 +1662,25 @@
       <c r="D3" s="8">
         <v>33239</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7">
         <v>16</v>
@@ -1543,171 +1688,198 @@
       <c r="D4" s="8">
         <v>33604</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="12">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="15"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
@@ -1723,14 +1895,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1746,94 +1918,150 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" t="s" s="24">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="24">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="24">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="22">
-        <v>7</v>
+      <c r="A2" t="s" s="25">
+        <v>21</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="26">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s" s="26">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s" s="26">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" ht="22.35" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="E3" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s" s="11">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="22">
-        <v>13</v>
+      <c r="A4" t="s" s="25">
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="6">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="E4" t="s" s="27">
+        <v>35</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="12"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/ExcelTool/excel/Person.xlsx
+++ b/ExcelTool/excel/Person.xlsx
@@ -95,7 +95,7 @@
     <t>arr&lt;int,int&gt;</t>
   </si>
   <si>
-    <t>arr&lt;int,sting&gt;</t>
+    <t>arr&lt;int,string&gt;</t>
   </si>
   <si>
     <t>Arr&lt;intSlice&gt;</t>
